--- a/Plantilla_Resultados_ESAComp_20250312.xlsx
+++ b/Plantilla_Resultados_ESAComp_20250312.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\Documents\GIA\Tercero\Mat Compuestos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mis Documentos\GIA\TERCERO\Mat Compuestos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5743A3A-1FBB-4966-80D8-35BE33B2C45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6C2811-6FBB-4F37-BB49-1CED56ACF76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -694,13 +694,13 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,21 +989,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1020,18 +1020,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="13">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>101</v>
@@ -1048,7 +1048,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="13">
-        <v>2723</v>
+        <v>5654</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>102</v>
@@ -1065,7 +1065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="13">
-        <v>12</v>
+        <v>4.67</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>103</v>
@@ -1082,7 +1082,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1090,13 +1090,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="13">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
@@ -1110,55 +1110,63 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13">
+        <v>161.22</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="13">
+        <v>10.856</v>
+      </c>
       <c r="D9" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="13">
+        <v>3313.5410000000002</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>277.93799999999999</v>
+      </c>
       <c r="D11" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -1167,13 +1175,13 @@
       </c>
       <c r="C12" s="13">
         <f>(C8-157)*100/157</f>
-        <v>-100</v>
+        <v>2.6878980891719739</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
@@ -1182,45 +1190,51 @@
       </c>
       <c r="C13" s="13">
         <f>(C9-12)*100/12</f>
-        <v>-100</v>
+        <v>-9.5333333333333332</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="13">
+        <f>(C10-2724)*100/2724</f>
+        <v>21.642474302496336</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="13">
+        <f>(C11-111)*100/111</f>
+        <v>150.39459459459459</v>
+      </c>
       <c r="D15" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1232,7 +1246,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>82</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>83</v>
       </c>
@@ -1256,7 +1270,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>84</v>
       </c>
@@ -1268,15 +1282,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>54</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>55</v>
       </c>
@@ -1304,7 +1318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>134</v>
       </c>
@@ -1316,7 +1330,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>137</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>135</v>
       </c>
@@ -1340,7 +1354,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>138</v>
       </c>
@@ -1352,7 +1366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>136</v>
       </c>
@@ -1364,15 +1378,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>85</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
@@ -1406,7 +1420,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>140</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
@@ -1442,7 +1456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>141</v>
       </c>
@@ -1454,7 +1468,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>139</v>
       </c>
@@ -1466,15 +1480,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
@@ -1486,7 +1500,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>79</v>
       </c>
@@ -1498,7 +1512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>121</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>122</v>
       </c>
@@ -1522,7 +1536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>128</v>
       </c>
@@ -1534,7 +1548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>129</v>
       </c>
@@ -1546,7 +1560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>124</v>
       </c>
@@ -1558,7 +1572,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>125</v>
       </c>
@@ -1570,7 +1584,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>80</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>81</v>
       </c>
@@ -1594,7 +1608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>130</v>
       </c>
@@ -1606,7 +1620,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>131</v>
       </c>
@@ -1618,15 +1632,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>142</v>
       </c>
@@ -1638,7 +1652,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>159</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>66</v>
       </c>
@@ -1662,7 +1676,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>76</v>
       </c>
@@ -1674,15 +1688,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>143</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>160</v>
       </c>
@@ -1706,7 +1720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>144</v>
       </c>
@@ -1718,7 +1732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>163</v>
       </c>
@@ -1730,15 +1744,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>145</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>72</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>165</v>
       </c>
@@ -1774,7 +1788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>67</v>
       </c>
@@ -1786,7 +1800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>146</v>
       </c>
@@ -1798,15 +1812,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
@@ -1816,7 +1830,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>89</v>
       </c>
@@ -1828,7 +1842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>90</v>
       </c>
@@ -1840,7 +1854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>91</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>147</v>
       </c>
@@ -1864,7 +1878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>148</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>92</v>
       </c>
@@ -1886,15 +1900,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>86</v>
       </c>
@@ -1904,7 +1918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>33</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>35</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>36</v>
       </c>
@@ -1950,7 +1964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>87</v>
       </c>
@@ -1962,7 +1976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>39</v>
       </c>
@@ -1974,7 +1988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>88</v>
       </c>
@@ -1986,7 +2000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>93</v>
       </c>
@@ -1998,51 +2012,45 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="18"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="18"/>
-      <c r="B161" s="18"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="18"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wqZIvd3NtRPm6g2WXwSS0RvxPGpbqre0FxDtdszCQzID/bHkjh8kY4u5nvoaNR+mLXBWKZ5G7XMNe8GMfaHCQQ==" saltValue="Jl5s5OUZo20thMcDxAkeLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A153:D153"/>
     <mergeCell ref="A56:D56"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A67:D67"/>
@@ -2053,6 +2061,12 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A51:D51"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A172:D172"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A153:D153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,20 +2075,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="82aaefa7-57ab-4709-b77d-0a4501035308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="82aaefa7-57ab-4709-b77d-0a4501035308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2255,6 +2269,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1EAA36-4C80-40A9-BE64-350BA868568A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2284386-DDBE-4506-AB6E-C0CCA60DE818}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2262,14 +2284,6 @@
     <ds:schemaRef ds:uri="82aaefa7-57ab-4709-b77d-0a4501035308"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E1EAA36-4C80-40A9-BE64-350BA868568A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
